--- a/test-data/Assortment_Insight.xlsx
+++ b/test-data/Assortment_Insight.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034514\PowerBI_BY\PowerBI_UIAutomation\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034514\Desktop\Old_Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740DBFD1-E414-4DC1-98D8-034811D0CC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE507F20-739B-4DE3-895C-F271FC7103ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="567" activeTab="1" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView minimized="1" xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11040" tabRatio="567" activeTab="2" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="147">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -105,386 +105,385 @@
     <t>Category</t>
   </si>
   <si>
+    <t>TC22_Check if scrolling is working fine</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>mahan.madiwal@jda.com</t>
+  </si>
+  <si>
+    <t>Apisero@2023</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC01</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC02</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC03</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC04</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC05</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC06</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC07</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC08</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC09</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC10</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC11</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC12</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC13</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC14</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC15</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC16</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC17</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC18</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC19</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC20</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC21</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC22</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC23</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC24</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC25</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC26</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC27</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC28</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC29</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC30</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC31</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC32</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC33</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC34</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC35</t>
+  </si>
+  <si>
+    <t>TC01_Check if the Category dropdown has data</t>
+  </si>
+  <si>
+    <t>TC02_Check if category dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>TC03_Check if the Sub Category dropdown has data</t>
+  </si>
+  <si>
+    <t>validateDropDownHasData_Assort</t>
+  </si>
+  <si>
+    <t>TC04_Check if Sub category dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>validateValueInDropDown_Assort</t>
+  </si>
+  <si>
+    <t>TC05_Check if the  Brand dropdown has data</t>
+  </si>
+  <si>
+    <t>TC06_Check if the Brand dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>TC07_Check if the Status dropdown has data</t>
+  </si>
+  <si>
+    <t>TC08_Check if the Status dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>TC09_Check if the Live Projects dropdown has data</t>
+  </si>
+  <si>
+    <t>TC10_Check if the Live Projects dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>TC11_Check if the WIP Projects dropdown has data</t>
+  </si>
+  <si>
+    <t>TC13_Check if the Live Assortment dropdown has data</t>
+  </si>
+  <si>
+    <t>TC14_Check if the Live Assortment  dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>TC15_Check if the From dropdown has data</t>
+  </si>
+  <si>
+    <t>TC16_Check if the From   dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>TC17_Check if the To dropdown has data</t>
+  </si>
+  <si>
+    <t>TC18_Check if the To   dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC19_Check if the  dropdown has search option </t>
+  </si>
+  <si>
+    <t>TC20_Check if the chart shows Live and WIP status for each product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC21_Check if last updated date is shown or not </t>
+  </si>
+  <si>
+    <t>TC23_Check if the chart shows actual vs budget sales for different types of brands</t>
+  </si>
+  <si>
+    <t>TC24_Check if the chart shows actual vs budget margin for different types of brands</t>
+  </si>
+  <si>
+    <t>TC25_Check if sales button  shows actual vs budget sales</t>
+  </si>
+  <si>
+    <t>TC26_Check if margin button  shows actual vs budget margin</t>
+  </si>
+  <si>
+    <t>TC27_Check all the navigations working across buttons and the links</t>
+  </si>
+  <si>
+    <t>TC28_Check if the chart shows sales data across units</t>
+  </si>
+  <si>
+    <t>TC29_Check if the button redirects to product insights page</t>
+  </si>
+  <si>
+    <t>TC30_Check if the chart shows sales, units, avg sales/units per week for each product</t>
+  </si>
+  <si>
+    <t>TC31_Check if last updated date is shown or not</t>
+  </si>
+  <si>
+    <t>TC32_Check if the button works properly in pareto analysis chart Sales Button</t>
+  </si>
+  <si>
+    <t>TC33_Check if the button works properly in pareto analysis chart Units Button</t>
+  </si>
+  <si>
+    <t>TC34_Check if the button works properly in pareto analysis chart Margin Button</t>
+  </si>
+  <si>
+    <t>TC35_Check if the chart shows cumulative % value Pareto Analysis Chart</t>
+  </si>
+  <si>
+    <t>TC36_Check if the chart shows cumulative % value Pareto Analysis Chart</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC36</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC37</t>
+  </si>
+  <si>
+    <t>TC37_Check if the chart shows sales, units, sales retail price for each store ID</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC38</t>
+  </si>
+  <si>
+    <t>TC38_Check if the button redirects to store insights page</t>
+  </si>
+  <si>
+    <t>TC39_Check if the chart shows CPI values across store IDs  CPI By Store ID</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC39</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC40</t>
+  </si>
+  <si>
+    <t>TC40_Check if X axiz show store IDs  CPI By Store ID</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC41</t>
+  </si>
+  <si>
+    <t>TC41_Check if the dropdown has data  CPI% Sales</t>
+  </si>
+  <si>
+    <t>TC42_Check if the dropdown has data  CPI% Units</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC42</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC43</t>
+  </si>
+  <si>
+    <t>TC43_Check if the dropdown has data  CPI% Margin</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC44</t>
+  </si>
+  <si>
+    <t>TC44_Check if last updated date is shown or not Last updated date</t>
+  </si>
+  <si>
+    <t>TC45_Check if scrolling is working fine</t>
+  </si>
+  <si>
+    <t>AssortInsight_TC45</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/groups/41000121-9728-4f5f-a602-386eef80da9f/reports/c6227bf8-30d8-491e-aa38-3f81f55fb4b9/ReportSection46055abcc68332a787ab</t>
+  </si>
+  <si>
+    <t>TC12_Check if the WIP  Projects dropdown select all option is enabled</t>
+  </si>
+  <si>
+    <t>Current AssortmentProject</t>
+  </si>
+  <si>
+    <t>Proposed AssortmentProject</t>
+  </si>
+  <si>
+    <t>validateAssortPerformTabledata_Assort</t>
+  </si>
+  <si>
+    <t>validateLastUpdateData_Assort</t>
+  </si>
+  <si>
+    <t>verifyscrolling_Assort</t>
+  </si>
+  <si>
+    <t>validate_AssortPerfor_actualvsbudget_salesAssort</t>
+  </si>
+  <si>
+    <t>validate_AssortPerfor_actualvsbudget_MarginAssort</t>
+  </si>
+  <si>
+    <t>validate_AssortPerformSalesButton_Assort</t>
+  </si>
+  <si>
+    <t>TC26_Check if the margin button  shows actual vs budget margin</t>
+  </si>
+  <si>
+    <t>validate_AssortPerformMarginAssort</t>
+  </si>
+  <si>
+    <t>validate_AssortProductPrform_chart</t>
+  </si>
+  <si>
+    <t>validate_AssortPereto_chart</t>
+  </si>
+  <si>
+    <t>validate_AssortPereto_CumilativeSales</t>
+  </si>
+  <si>
+    <t>validate_AssortStorePerformance</t>
+  </si>
+  <si>
+    <t>validate_AssortStoreStoreID</t>
+  </si>
+  <si>
+    <t>Sales Percentage</t>
+  </si>
+  <si>
+    <t>Units Percentage</t>
+  </si>
+  <si>
+    <t>Margin Percentage</t>
+  </si>
+  <si>
+    <t>Sub-Category</t>
+  </si>
+  <si>
+    <t>clickonFilterandchecktheSearchButton_Assort</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Assortment</t>
+  </si>
+  <si>
+    <t>validate_LiveAssortmentDropdown</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>TC22_Check if scrolling is working fine</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>mahan.madiwal@jda.com</t>
-  </si>
-  <si>
-    <t>Apisero@2023</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC01</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC02</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC03</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC04</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC05</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC06</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC07</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC08</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC09</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC10</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC11</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC12</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC13</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC14</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC15</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC16</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC17</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC18</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC19</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC20</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC21</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC22</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC23</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC24</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC25</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC26</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC27</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC28</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC29</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC30</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC31</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC32</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC33</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC34</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC35</t>
-  </si>
-  <si>
-    <t>TC01_Check if the Category dropdown has data</t>
-  </si>
-  <si>
-    <t>TC02_Check if category dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>TC03_Check if the Sub Category dropdown has data</t>
-  </si>
-  <si>
-    <t>validateDropDownHasData_Assort</t>
-  </si>
-  <si>
-    <t>TC04_Check if Sub category dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>validateValueInDropDown_Assort</t>
-  </si>
-  <si>
-    <t>TC05_Check if the  Brand dropdown has data</t>
-  </si>
-  <si>
-    <t>TC06_Check if the Brand dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>TC07_Check if the Status dropdown has data</t>
-  </si>
-  <si>
-    <t>TC08_Check if the Status dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>TC09_Check if the Live Projects dropdown has data</t>
-  </si>
-  <si>
-    <t>TC10_Check if the Live Projects dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>TC11_Check if the WIP Projects dropdown has data</t>
-  </si>
-  <si>
-    <t>TC13_Check if the Live Assortment dropdown has data</t>
-  </si>
-  <si>
-    <t>TC14_Check if the Live Assortment  dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>TC15_Check if the From dropdown has data</t>
-  </si>
-  <si>
-    <t>TC16_Check if the From   dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>TC17_Check if the To dropdown has data</t>
-  </si>
-  <si>
-    <t>TC18_Check if the To   dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC19_Check if the  dropdown has search option </t>
-  </si>
-  <si>
-    <t>TC20_Check if the chart shows Live and WIP status for each product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC21_Check if last updated date is shown or not </t>
-  </si>
-  <si>
-    <t>TC23_Check if the chart shows actual vs budget sales for different types of brands</t>
-  </si>
-  <si>
-    <t>TC24_Check if the chart shows actual vs budget margin for different types of brands</t>
-  </si>
-  <si>
-    <t>TC25_Check if sales button  shows actual vs budget sales</t>
-  </si>
-  <si>
-    <t>TC26_Check if margin button  shows actual vs budget margin</t>
-  </si>
-  <si>
-    <t>TC27_Check all the navigations working across buttons and the links</t>
-  </si>
-  <si>
-    <t>TC28_Check if the chart shows sales data across units</t>
-  </si>
-  <si>
-    <t>TC29_Check if the button redirects to product insights page</t>
-  </si>
-  <si>
-    <t>TC30_Check if the chart shows sales, units, avg sales/units per week for each product</t>
-  </si>
-  <si>
-    <t>TC31_Check if last updated date is shown or not</t>
-  </si>
-  <si>
-    <t>TC32_Check if the button works properly in pareto analysis chart Sales Button</t>
-  </si>
-  <si>
-    <t>TC33_Check if the button works properly in pareto analysis chart Units Button</t>
-  </si>
-  <si>
-    <t>TC34_Check if the button works properly in pareto analysis chart Margin Button</t>
-  </si>
-  <si>
-    <t>TC35_Check if the chart shows cumulative % value Pareto Analysis Chart</t>
-  </si>
-  <si>
-    <t>TC36_Check if the chart shows cumulative % value Pareto Analysis Chart</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC36</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC37</t>
-  </si>
-  <si>
-    <t>TC37_Check if the chart shows sales, units, sales retail price for each store ID</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC38</t>
-  </si>
-  <si>
-    <t>TC38_Check if the button redirects to store insights page</t>
-  </si>
-  <si>
-    <t>TC39_Check if the chart shows CPI values across store IDs  CPI By Store ID</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC39</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC40</t>
-  </si>
-  <si>
-    <t>TC40_Check if X axiz show store IDs  CPI By Store ID</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC41</t>
-  </si>
-  <si>
-    <t>TC41_Check if the dropdown has data  CPI% Sales</t>
-  </si>
-  <si>
-    <t>TC42_Check if the dropdown has data  CPI% Units</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC42</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC43</t>
-  </si>
-  <si>
-    <t>TC43_Check if the dropdown has data  CPI% Margin</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC44</t>
-  </si>
-  <si>
-    <t>TC44_Check if last updated date is shown or not Last updated date</t>
-  </si>
-  <si>
-    <t>TC45_Check if scrolling is working fine</t>
-  </si>
-  <si>
-    <t>AssortInsight_TC45</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>https://app.powerbi.com/groups/41000121-9728-4f5f-a602-386eef80da9f/reports/c6227bf8-30d8-491e-aa38-3f81f55fb4b9/ReportSection46055abcc68332a787ab</t>
-  </si>
-  <si>
-    <t>TC12_Check if the WIP  Projects dropdown select all option is enabled</t>
-  </si>
-  <si>
-    <t>Current AssortmentProject</t>
-  </si>
-  <si>
-    <t>Assortment</t>
-  </si>
-  <si>
-    <t>Proposed AssortmentProject</t>
-  </si>
-  <si>
-    <t>validateAssortPerformTabledata_Assort</t>
-  </si>
-  <si>
-    <t>validateLastUpdateData_Assort</t>
-  </si>
-  <si>
-    <t>verifyscrolling_Assort</t>
-  </si>
-  <si>
-    <t>validate_AssortPerfor_actualvsbudget_salesAssort</t>
-  </si>
-  <si>
-    <t>validate_AssortPerfor_actualvsbudget_MarginAssort</t>
-  </si>
-  <si>
-    <t>validate_AssortPerformSalesButton_Assort</t>
-  </si>
-  <si>
-    <t>TC26_Check if the margin button  shows actual vs budget margin</t>
-  </si>
-  <si>
-    <t>validate_AssortPerformMarginAssort</t>
-  </si>
-  <si>
-    <t>validate_AssortProductPrform_chart</t>
-  </si>
-  <si>
-    <t>validate_AssortPereto_chart</t>
-  </si>
-  <si>
-    <t>validate_AssortPereto_CumilativeSales</t>
-  </si>
-  <si>
-    <t>validate_AssortStorePerformance</t>
-  </si>
-  <si>
-    <t>validate_AssortStoreStoreID</t>
-  </si>
-  <si>
-    <t>Sales Percentage</t>
-  </si>
-  <si>
-    <t>Units Percentage</t>
-  </si>
-  <si>
-    <t>Margin Percentage</t>
-  </si>
-  <si>
-    <t>Sub-Category</t>
-  </si>
-  <si>
-    <t>clickonFilterandchecktheSearchButton_Assort</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -618,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,6 +672,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -991,20 +991,20 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="19.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="109.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="18.109375" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="4" width="9.6640625" collapsed="true"/>
-    <col min="7" max="16384" style="4" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="109.42578125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,655 +1024,775 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="23">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="23">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="23">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="23">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="23">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="23">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="23">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="23">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="20" t="s">
+      <c r="C24" s="23">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="23">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="C25" s="23">
+        <v>1</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="23">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="C26" s="23">
+        <v>1</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B27" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="23">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="C27" s="23">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B28" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="23">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="C28" s="23">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B29" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="23">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="C29" s="23">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B30" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="23">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="C30" s="23">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="23">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="C31" s="23">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B32" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="23">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="C32" s="23">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="23">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="C33" s="23">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="23">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="C34" s="23">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="23">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="C35" s="23">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B36" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="23">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="20" t="s">
+      <c r="C36" s="23">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="23">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="23">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="23">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="C38" s="23">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B39" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="23">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="C39" s="23">
+        <v>1</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="23">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="C40" s="23">
+        <v>1</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="23">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="C41" s="23">
+        <v>1</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B42" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="23">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="C42" s="23">
+        <v>1</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="23">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+      <c r="C43" s="23">
+        <v>1</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="23">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+      <c r="C44" s="23">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="23">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="C45" s="23">
+        <v>1</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="23">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>116</v>
-      </c>
       <c r="C46" s="23">
         <v>1</v>
       </c>
+      <c r="D46" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="E46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
     </row>
   </sheetData>
@@ -1686,21 +1806,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView topLeftCell="A30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="78.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="55.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="25.88671875" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="4" width="9.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="103.88671875" collapsed="true"/>
-    <col min="7" max="16384" style="4" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="78.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.85546875" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="103.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1719,1613 +1839,1617 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E73" s="10"/>
     </row>
-    <row r="74" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E76" s="10"/>
     </row>
-    <row r="77" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E79" s="10"/>
     </row>
-    <row r="80" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E82" s="10"/>
     </row>
-    <row r="83" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E85" s="10"/>
     </row>
-    <row r="86" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E88" s="10"/>
     </row>
-    <row r="89" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E91" s="10"/>
     </row>
-    <row r="92" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E94" s="10"/>
     </row>
-    <row r="95" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E97" s="10"/>
     </row>
-    <row r="98" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E100" s="10"/>
     </row>
-    <row r="101" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E103" s="10"/>
     </row>
-    <row r="104" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E106" s="10"/>
     </row>
-    <row r="107" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E109" s="10"/>
     </row>
-    <row r="110" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E112" s="10"/>
-    </row>
-    <row r="113" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="10"/>
-    </row>
-    <row r="116" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>102</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E118" s="10"/>
-    </row>
-    <row r="119" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" s="10"/>
-    </row>
-    <row r="122" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D123" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E124" s="10"/>
-    </row>
-    <row r="125" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D126" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128" s="10"/>
-    </row>
-    <row r="129" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D131" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E132" s="10"/>
-    </row>
-    <row r="133" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D135" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D135" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E136" s="10"/>
-    </row>
-    <row r="137" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D138" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B139" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E139" s="10"/>
-    </row>
-    <row r="140" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="E142" s="10"/>
     </row>
@@ -3339,23 +3463,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D50260-A9DB-41F9-A2C1-CB233BD53A31}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="66.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="66.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3390,9 +3514,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
@@ -3401,13 +3525,13 @@
         <v>19</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>21</v>
@@ -3415,9 +3539,9 @@
       <c r="H2" s="11"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -3426,13 +3550,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>21</v>
@@ -3444,9 +3568,9 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -3455,24 +3579,24 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -3481,25 +3605,25 @@
         <v>19</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -3508,22 +3632,22 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -3532,25 +3656,25 @@
         <v>19</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -3559,22 +3683,22 @@
         <v>19</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="11">
         <v>1</v>
@@ -3583,22 +3707,22 @@
         <v>19</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="11">
         <v>1</v>
@@ -3607,22 +3731,22 @@
         <v>19</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -3631,24 +3755,24 @@
         <v>19</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="11">
         <v>1</v>
@@ -3657,22 +3781,22 @@
         <v>19</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>123</v>
-      </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="11">
         <v>1</v>
@@ -3681,24 +3805,24 @@
         <v>19</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="11">
         <v>1</v>
@@ -3707,22 +3831,24 @@
         <v>19</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
@@ -3731,24 +3857,24 @@
         <v>19</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>124</v>
+        <v>25</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>143</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="11">
         <v>1</v>
@@ -3757,22 +3883,22 @@
         <v>19</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -3781,22 +3907,22 @@
         <v>19</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="11">
         <v>1</v>
@@ -3805,21 +3931,21 @@
         <v>19</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="11">
         <v>1</v>
@@ -3828,22 +3954,22 @@
         <v>19</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -3852,22 +3978,22 @@
         <v>19</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11">
         <v>1</v>
@@ -3876,18 +4002,18 @@
         <v>19</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -3896,18 +4022,18 @@
         <v>19</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
@@ -3916,18 +4042,18 @@
         <v>19</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="11">
         <v>1</v>
@@ -3936,18 +4062,18 @@
         <v>19</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="11">
         <v>1</v>
@@ -3956,18 +4082,18 @@
         <v>19</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
@@ -3976,18 +4102,18 @@
         <v>19</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="11">
         <v>1</v>
@@ -3996,18 +4122,18 @@
         <v>19</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="11">
         <v>1</v>
@@ -4016,18 +4142,18 @@
         <v>19</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="11">
         <v>1</v>
@@ -4036,18 +4162,18 @@
         <v>19</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="11">
         <v>1</v>
@@ -4056,18 +4182,18 @@
         <v>19</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="11">
         <v>1</v>
@@ -4076,18 +4202,18 @@
         <v>19</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" s="11">
         <v>1</v>
@@ -4096,18 +4222,18 @@
         <v>19</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" s="11">
         <v>1</v>
@@ -4116,18 +4242,18 @@
         <v>19</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="11">
         <v>1</v>
@@ -4136,18 +4262,18 @@
         <v>19</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="11">
         <v>1</v>
@@ -4156,18 +4282,18 @@
         <v>19</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="11">
         <v>1</v>
@@ -4176,18 +4302,18 @@
         <v>19</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="11">
         <v>1</v>
@@ -4196,18 +4322,18 @@
         <v>19</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" s="11">
         <v>1</v>
@@ -4216,18 +4342,18 @@
         <v>19</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="11">
         <v>1</v>
@@ -4236,18 +4362,18 @@
         <v>19</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" s="11">
         <v>1</v>
@@ -4256,18 +4382,18 @@
         <v>19</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
@@ -4276,18 +4402,18 @@
         <v>19</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" s="11">
         <v>1</v>
@@ -4296,24 +4422,24 @@
         <v>19</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H42" s="25">
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" s="11">
         <v>1</v>
@@ -4322,24 +4448,24 @@
         <v>19</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H43" s="25">
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" s="11">
         <v>1</v>
@@ -4348,24 +4474,24 @@
         <v>19</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H44" s="25">
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B45" s="11">
         <v>1</v>
@@ -4374,18 +4500,18 @@
         <v>19</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" s="11">
         <v>1</v>
@@ -4394,16 +4520,16 @@
         <v>19</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F47" s="16"/>
     </row>
   </sheetData>
